--- a/biology/Zoologie/Alioramini/Alioramini.xlsx
+++ b/biology/Zoologie/Alioramini/Alioramini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alioramini forment un clade ou tribu de dinosaures théropodes de la famille des Tyrannosauridae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce clade inclut le genre Qianzhousaurus et les deux espèces d'Alioramus, Alioramus altai et Alioramus remotus, tous découverts en Asie et vivant durant le Maastrichien, dernier étage du Crétacé, il y a environ 70 millions d'années[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce clade inclut le genre Qianzhousaurus et les deux espèces d'Alioramus, Alioramus altai et Alioramus remotus, tous découverts en Asie et vivant durant le Maastrichien, dernier étage du Crétacé, il y a environ 70 millions d'années.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La découverte de Qianzhousaurus en 2014 a conduit Lü Junchang et ses collègues à nommer une nouvelle branche parmi la sous-famille des Tyrannosaurinae, appelée Alioramini, comprenant également Alioramus. Ces genres se distinguent des autres tyrannosauridés par notamment un crâne très allongé et des petites crêtes sur l'os nasal[1]. Cette classification a été confirmée par Stephen Brusatte et Thomas Carr en 2016, lors d'une revue de l'analyse phylogénétique des Tyrannosauroidea et de leur évolution[2].
-Cladogramme des Tyrannosauridae
-Ci-dessous, la phylogénie des genres de tyrannosauridés d'après l'étude publié par Brusatte &amp; Carr (2016)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte de Qianzhousaurus en 2014 a conduit Lü Junchang et ses collègues à nommer une nouvelle branche parmi la sous-famille des Tyrannosaurinae, appelée Alioramini, comprenant également Alioramus. Ces genres se distinguent des autres tyrannosauridés par notamment un crâne très allongé et des petites crêtes sur l'os nasal. Cette classification a été confirmée par Stephen Brusatte et Thomas Carr en 2016, lors d'une revue de l'analyse phylogénétique des Tyrannosauroidea et de leur évolution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alioramini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alioramini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cladogramme des Tyrannosauridae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, la phylogénie des genres de tyrannosauridés d'après l'étude publié par Brusatte &amp; Carr (2016) :
 </t>
         </is>
       </c>
